--- a/docs/StructureDefinition-zib-Problem.xlsx
+++ b/docs/StructureDefinition-zib-Problem.xlsx
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-17T14:25:12+02:00</t>
+    <t>2023-10-17T15:52:40+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 Netherlands</t>
+    <t>HL7NL</t>
   </si>
   <si>
     <t>Contact</t>

--- a/docs/StructureDefinition-zib-Problem.xlsx
+++ b/docs/StructureDefinition-zib-Problem.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-17T15:52:40+02:00</t>
+    <t>2023-10-17T18:06:34+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
